--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Agt-Agtr1a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Agt-Agtr1a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
   </si>
   <si>
     <t>Agt</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -534,16 +537,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.05671333333333334</v>
+        <v>0.05804633333333333</v>
       </c>
       <c r="H2">
-        <v>0.17014</v>
+        <v>0.174139</v>
       </c>
       <c r="I2">
-        <v>0.02987656731692481</v>
+        <v>0.02760497488446473</v>
       </c>
       <c r="J2">
-        <v>0.02987656731692481</v>
+        <v>0.02760497488446473</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.720721333333333</v>
+        <v>2.207767333333333</v>
       </c>
       <c r="N2">
-        <v>23.162164</v>
+        <v>6.623302000000001</v>
       </c>
       <c r="O2">
-        <v>0.1914196631940246</v>
+        <v>0.07574879669493666</v>
       </c>
       <c r="P2">
-        <v>0.1914196631940246</v>
+        <v>0.07574879669493666</v>
       </c>
       <c r="Q2">
-        <v>0.4378678425511111</v>
+        <v>0.1281527985531111</v>
       </c>
       <c r="R2">
-        <v>3.94081058296</v>
+        <v>1.153375186978</v>
       </c>
       <c r="S2">
-        <v>0.005718962453199352</v>
+        <v>0.002091043630292151</v>
       </c>
       <c r="T2">
-        <v>0.005718962453199351</v>
+        <v>0.002091043630292151</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -596,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.05671333333333334</v>
+        <v>0.05804633333333333</v>
       </c>
       <c r="H3">
-        <v>0.17014</v>
+        <v>0.174139</v>
       </c>
       <c r="I3">
-        <v>0.02987656731692481</v>
+        <v>0.02760497488446473</v>
       </c>
       <c r="J3">
-        <v>0.02987656731692481</v>
+        <v>0.02760497488446473</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +623,22 @@
         <v>56.820645</v>
       </c>
       <c r="O3">
-        <v>0.4695843069053151</v>
+        <v>0.6498413459298955</v>
       </c>
       <c r="P3">
-        <v>0.4695843069053151</v>
+        <v>0.6498413459298955</v>
       </c>
       <c r="Q3">
-        <v>1.0741627267</v>
+        <v>1.099410033295</v>
       </c>
       <c r="R3">
-        <v>9.667464540300001</v>
+        <v>9.894690299654998</v>
       </c>
       <c r="S3">
-        <v>0.01402956715622813</v>
+        <v>0.01793885403328152</v>
       </c>
       <c r="T3">
-        <v>0.01402956715622813</v>
+        <v>0.01793885403328152</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,10 +646,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -658,16 +661,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.05671333333333334</v>
+        <v>0.05804633333333333</v>
       </c>
       <c r="H4">
-        <v>0.17014</v>
+        <v>0.174139</v>
       </c>
       <c r="I4">
-        <v>0.02987656731692481</v>
+        <v>0.02760497488446473</v>
       </c>
       <c r="J4">
-        <v>0.02987656731692481</v>
+        <v>0.02760497488446473</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.673067</v>
+        <v>7.997924</v>
       </c>
       <c r="N4">
-        <v>41.019201</v>
+        <v>23.993772</v>
       </c>
       <c r="O4">
-        <v>0.3389960299006603</v>
+        <v>0.2744098573751678</v>
       </c>
       <c r="P4">
-        <v>0.3389960299006603</v>
+        <v>0.2744098573751678</v>
       </c>
       <c r="Q4">
-        <v>0.7754452064599999</v>
+        <v>0.4642501624786667</v>
       </c>
       <c r="R4">
-        <v>6.97900685814</v>
+        <v>4.178251462307999</v>
       </c>
       <c r="S4">
-        <v>0.01012803770749733</v>
+        <v>0.007575077220891057</v>
       </c>
       <c r="T4">
-        <v>0.01012803770749733</v>
+        <v>0.007575077220891056</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,10 +708,10 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
@@ -726,10 +729,10 @@
         <v>5.283341</v>
       </c>
       <c r="I5">
-        <v>0.9277541615420762</v>
+        <v>0.8375291899635509</v>
       </c>
       <c r="J5">
-        <v>0.9277541615420761</v>
+        <v>0.8375291899635509</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.720721333333333</v>
+        <v>2.207767333333333</v>
       </c>
       <c r="N5">
-        <v>23.162164</v>
+        <v>6.623302000000001</v>
       </c>
       <c r="O5">
-        <v>0.1914196631940246</v>
+        <v>0.07574879669493666</v>
       </c>
       <c r="P5">
-        <v>0.1914196631940246</v>
+        <v>0.07574879669493666</v>
       </c>
       <c r="Q5">
-        <v>13.59706785665822</v>
+        <v>3.888129223553556</v>
       </c>
       <c r="R5">
-        <v>122.373610709924</v>
+        <v>34.99316301198201</v>
       </c>
       <c r="S5">
-        <v>0.177590389129239</v>
+        <v>0.063441828336624</v>
       </c>
       <c r="T5">
-        <v>0.1775903891292389</v>
+        <v>0.063441828336624</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
@@ -788,10 +791,10 @@
         <v>5.283341</v>
       </c>
       <c r="I6">
-        <v>0.9277541615420762</v>
+        <v>0.8375291899635509</v>
       </c>
       <c r="J6">
-        <v>0.9277541615420761</v>
+        <v>0.8375291899635509</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +809,10 @@
         <v>56.820645</v>
       </c>
       <c r="O6">
-        <v>0.4695843069053151</v>
+        <v>0.6498413459298955</v>
       </c>
       <c r="P6">
-        <v>0.4695843069053151</v>
+        <v>0.6498413459298955</v>
       </c>
       <c r="Q6">
         <v>33.35587148610499</v>
@@ -818,10 +821,10 @@
         <v>300.202843374945</v>
       </c>
       <c r="S6">
-        <v>0.4356587949262576</v>
+        <v>0.544261096061489</v>
       </c>
       <c r="T6">
-        <v>0.4356587949262575</v>
+        <v>0.544261096061489</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
@@ -850,10 +853,10 @@
         <v>5.283341</v>
       </c>
       <c r="I7">
-        <v>0.9277541615420762</v>
+        <v>0.8375291899635509</v>
       </c>
       <c r="J7">
-        <v>0.9277541615420761</v>
+        <v>0.8375291899635509</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>13.673067</v>
+        <v>7.997924</v>
       </c>
       <c r="N7">
-        <v>41.019201</v>
+        <v>23.993772</v>
       </c>
       <c r="O7">
-        <v>0.3389960299006603</v>
+        <v>0.2744098573751678</v>
       </c>
       <c r="P7">
-        <v>0.3389960299006603</v>
+        <v>0.2744098573751678</v>
       </c>
       <c r="Q7">
-        <v>24.079825158949</v>
+        <v>14.08525326136133</v>
       </c>
       <c r="R7">
-        <v>216.718426430541</v>
+        <v>126.767279352252</v>
       </c>
       <c r="S7">
-        <v>0.3145049774865797</v>
+        <v>0.2298262655654378</v>
       </c>
       <c r="T7">
-        <v>0.3145049774865797</v>
+        <v>0.2298262655654378</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -891,31 +894,31 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.08042766666666666</v>
+        <v>0.2331273333333333</v>
       </c>
       <c r="H8">
-        <v>0.241283</v>
+        <v>0.6993819999999999</v>
       </c>
       <c r="I8">
-        <v>0.04236927114099899</v>
+        <v>0.1108678845327394</v>
       </c>
       <c r="J8">
-        <v>0.04236927114099899</v>
+        <v>0.1108678845327394</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.720721333333333</v>
+        <v>2.207767333333333</v>
       </c>
       <c r="N8">
-        <v>23.162164</v>
+        <v>6.623302000000001</v>
       </c>
       <c r="O8">
-        <v>0.1914196631940246</v>
+        <v>0.07574879669493666</v>
       </c>
       <c r="P8">
-        <v>0.1914196631940246</v>
+        <v>0.07574879669493666</v>
       </c>
       <c r="Q8">
-        <v>0.6209596018235555</v>
+        <v>0.5146909110404444</v>
       </c>
       <c r="R8">
-        <v>5.588636416411999</v>
+        <v>4.632218199364</v>
       </c>
       <c r="S8">
-        <v>0.008110311611586336</v>
+        <v>0.008398108845468192</v>
       </c>
       <c r="T8">
-        <v>0.008110311611586334</v>
+        <v>0.008398108845468192</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -953,31 +956,31 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.08042766666666666</v>
+        <v>0.2331273333333333</v>
       </c>
       <c r="H9">
-        <v>0.241283</v>
+        <v>0.6993819999999999</v>
       </c>
       <c r="I9">
-        <v>0.04236927114099899</v>
+        <v>0.1108678845327394</v>
       </c>
       <c r="J9">
-        <v>0.04236927114099899</v>
+        <v>0.1108678845327394</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +995,22 @@
         <v>56.820645</v>
       </c>
       <c r="O9">
-        <v>0.4695843069053151</v>
+        <v>0.6498413459298955</v>
       </c>
       <c r="P9">
-        <v>0.4695843069053151</v>
+        <v>0.6498413459298955</v>
       </c>
       <c r="Q9">
-        <v>1.523317298615</v>
+        <v>4.41548181571</v>
       </c>
       <c r="R9">
-        <v>13.709855687535</v>
+        <v>39.73933634138999</v>
       </c>
       <c r="S9">
-        <v>0.01989594482282938</v>
+        <v>0.07204653530515565</v>
       </c>
       <c r="T9">
-        <v>0.01989594482282938</v>
+        <v>0.07204653530515563</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1015,61 +1018,247 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.2331273333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.6993819999999999</v>
+      </c>
+      <c r="I10">
+        <v>0.1108678845327394</v>
+      </c>
+      <c r="J10">
+        <v>0.1108678845327394</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>7.997924</v>
+      </c>
+      <c r="N10">
+        <v>23.993772</v>
+      </c>
+      <c r="O10">
+        <v>0.2744098573751678</v>
+      </c>
+      <c r="P10">
+        <v>0.2744098573751678</v>
+      </c>
+      <c r="Q10">
+        <v>1.864534694322667</v>
+      </c>
+      <c r="R10">
+        <v>16.780812248904</v>
+      </c>
+      <c r="S10">
+        <v>0.0304232403821156</v>
+      </c>
+      <c r="T10">
+        <v>0.0304232403821156</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G10">
-        <v>0.08042766666666666</v>
-      </c>
-      <c r="H10">
-        <v>0.241283</v>
-      </c>
-      <c r="I10">
-        <v>0.04236927114099899</v>
-      </c>
-      <c r="J10">
-        <v>0.04236927114099899</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>13.673067</v>
-      </c>
-      <c r="N10">
-        <v>41.019201</v>
-      </c>
-      <c r="O10">
-        <v>0.3389960299006603</v>
-      </c>
-      <c r="P10">
-        <v>0.3389960299006603</v>
-      </c>
-      <c r="Q10">
-        <v>1.099692874987</v>
-      </c>
-      <c r="R10">
-        <v>9.897235874882998</v>
-      </c>
-      <c r="S10">
-        <v>0.01436301470658328</v>
-      </c>
-      <c r="T10">
-        <v>0.01436301470658328</v>
+      <c r="G11">
+        <v>0.05046166666666666</v>
+      </c>
+      <c r="H11">
+        <v>0.151385</v>
+      </c>
+      <c r="I11">
+        <v>0.02399795061924493</v>
+      </c>
+      <c r="J11">
+        <v>0.02399795061924493</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>2.207767333333333</v>
+      </c>
+      <c r="N11">
+        <v>6.623302000000001</v>
+      </c>
+      <c r="O11">
+        <v>0.07574879669493666</v>
+      </c>
+      <c r="P11">
+        <v>0.07574879669493666</v>
+      </c>
+      <c r="Q11">
+        <v>0.1114076192522222</v>
+      </c>
+      <c r="R11">
+        <v>1.00266857327</v>
+      </c>
+      <c r="S11">
+        <v>0.001817815882552314</v>
+      </c>
+      <c r="T11">
+        <v>0.001817815882552314</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.05046166666666666</v>
+      </c>
+      <c r="H12">
+        <v>0.151385</v>
+      </c>
+      <c r="I12">
+        <v>0.02399795061924493</v>
+      </c>
+      <c r="J12">
+        <v>0.02399795061924493</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>18.940215</v>
+      </c>
+      <c r="N12">
+        <v>56.820645</v>
+      </c>
+      <c r="O12">
+        <v>0.6498413459298955</v>
+      </c>
+      <c r="P12">
+        <v>0.6498413459298955</v>
+      </c>
+      <c r="Q12">
+        <v>0.9557548159249998</v>
+      </c>
+      <c r="R12">
+        <v>8.601793343324999</v>
+      </c>
+      <c r="S12">
+        <v>0.01559486052996929</v>
+      </c>
+      <c r="T12">
+        <v>0.01559486052996929</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.05046166666666666</v>
+      </c>
+      <c r="H13">
+        <v>0.151385</v>
+      </c>
+      <c r="I13">
+        <v>0.02399795061924493</v>
+      </c>
+      <c r="J13">
+        <v>0.02399795061924493</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>7.997924</v>
+      </c>
+      <c r="N13">
+        <v>23.993772</v>
+      </c>
+      <c r="O13">
+        <v>0.2744098573751678</v>
+      </c>
+      <c r="P13">
+        <v>0.2744098573751678</v>
+      </c>
+      <c r="Q13">
+        <v>0.4035885749133333</v>
+      </c>
+      <c r="R13">
+        <v>3.63229717422</v>
+      </c>
+      <c r="S13">
+        <v>0.006585274206723322</v>
+      </c>
+      <c r="T13">
+        <v>0.006585274206723322</v>
       </c>
     </row>
   </sheetData>
